--- a/EstimatedActiveCasesOverTimeByCounty/2021-03-17.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-03-17.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F19F3BC7-CB67-495C-AE32-F34403EF2167}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="360">
+  <si>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 03/17/2021 at 3:00 PM CST</t>
+  </si>
+  <si>
+    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
+  </si>
   <si>
     <t>Notes</t>
   </si>
@@ -304,10 +316,25 @@
     <t>Active Cases 03-15</t>
   </si>
   <si>
-    <t>Active Cases 03-16</t>
+    <t/>
   </si>
   <si>
     <t>†</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>† Active case estimate is provided by local health department or public health region</t>
+  </si>
+  <si>
+    <t>On 9/25/2020, there was a change in the method used to estimate the number of recovered cases in Public Health Region 11 counties. In some counties, this led to an increase in estimated active case counts.</t>
+  </si>
+  <si>
+    <t>On 9/28/2020, DSHS updated its active case estimate.  Due to the number of older cases being reported by local jurisdictions, DSHS updated the active and recovered case formulas to ensure these older cases are not counted as active. The number of active cases now more closely aligns with the number of new confirmed cases being reported daily to DSHS.</t>
+  </si>
+  <si>
+    <t>On 10/19/2020, there was a change in the method used to estimate the number of recovered cases in some Public Health Region 8 counties. In some counties, this led to a change in estimated active case counts.</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1072,46 +1099,42 @@
     <t>Zavala</t>
   </si>
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 03/17/2021 at 3:00 PM CST</t>
-  </si>
-  <si>
-    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>† Active case estimate is provided by local health department or public health region</t>
-  </si>
-  <si>
-    <t>On 9/25/2020, there was a change in the method used to estimate the number of recovered cases in Public Health Region 11 counties. In some counties, this led to an increase in estimated active case counts.</t>
-  </si>
-  <si>
-    <t>On 9/28/2020, DSHS updated its active case estimate.  Due to the number of older cases being reported by local jurisdictions, DSHS updated the active and recovered case formulas to ensure these older cases are not counted as active. The number of active cases now more closely aligns with the number of new confirmed cases being reported daily to DSHS.</t>
-  </si>
-  <si>
-    <t>On 10/19/2020, there was a change in the method used to estimate the number of recovered cases in some Public Health Region 8 counties. In some counties, this led to a change in estimated active case counts.</t>
+    <t>Active Cases 03-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF003087"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF005CB9"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1131,17 +1154,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,17 +1168,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1174,44 +1206,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1238,14 +1270,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1272,6 +1322,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1283,483 +1351,470 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="CI4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="CU156" sqref="CU156"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="97" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:97">
-      <c r="A1" t="s">
-        <v>352</v>
+    <row r="1" spans="1:97" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:97">
-      <c r="A2" t="s">
-        <v>353</v>
+    <row r="2" spans="1:97" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:97" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="S3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="U3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="V3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="W3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="X3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="Z3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AA3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AB3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AC3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AD3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AE3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AF3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AG3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AH3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AI3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AK3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AL3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AM3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AN3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AO3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AP3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AR3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AS3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AT3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AU3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AV3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AW3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="AX3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="AY3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BA3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BB3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BC3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BD3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BE3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BF3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BG3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BH3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BI3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BK3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BL3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BM3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BN3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BO3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BP3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BQ3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BR3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BS3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BT3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BU3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BV3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BW3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="BX3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="BY3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="BZ3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CA3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CB3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CC3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CD3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CE3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CF3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CG3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CH3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CI3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CK3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CL3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CM3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CN3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CO3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CP3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CQ3" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="CR3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CS3" s="4" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>261</v>
@@ -2047,9 +2102,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>313</v>
@@ -2337,9 +2395,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>751</v>
@@ -2627,9 +2688,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>103</v>
@@ -2917,12 +2981,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:97">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>45</v>
@@ -3210,9 +3274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:97">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <v>32</v>
@@ -3500,12 +3567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:97">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>210</v>
@@ -3793,9 +3860,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:97">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C11">
         <v>77</v>
@@ -4083,9 +4153,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:97">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C12">
         <v>118</v>
@@ -4373,12 +4446,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:97">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C13">
         <v>46</v>
@@ -4666,9 +4739,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:97">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>461</v>
@@ -4956,12 +5032,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:97">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -5249,9 +5325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:97">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C16">
         <v>171</v>
@@ -5539,12 +5618,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:97">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C17">
         <v>1639</v>
@@ -5832,9 +5911,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:97">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C18">
         <v>15750</v>
@@ -6122,9 +6204,12 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="19" spans="1:97">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C19">
         <v>24</v>
@@ -6412,9 +6497,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:97">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -6702,9 +6790,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:97">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C21">
         <v>74</v>
@@ -6992,9 +7083,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:97">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C22">
         <v>482</v>
@@ -7282,9 +7376,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:97">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C23">
         <v>2730</v>
@@ -7572,12 +7669,12 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="24" spans="1:97">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C24">
         <v>854</v>
@@ -7865,9 +7962,12 @@
         <v>850</v>
       </c>
     </row>
-    <row r="25" spans="1:97">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C25">
         <v>182</v>
@@ -8155,9 +8255,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:97">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -8445,9 +8548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:97">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C27">
         <v>38</v>
@@ -8735,12 +8841,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:97">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C28">
         <v>429</v>
@@ -9028,9 +9134,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:97">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C29">
         <v>119</v>
@@ -9318,9 +9427,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:97">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C30">
         <v>311</v>
@@ -9608,9 +9720,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:97">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C31">
         <v>197</v>
@@ -9898,12 +10013,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:97">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C32">
         <v>51</v>
@@ -10191,12 +10306,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:97">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C33">
         <v>49</v>
@@ -10484,12 +10599,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:97">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C34">
         <v>2029</v>
@@ -10777,9 +10892,12 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="35" spans="1:97">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C35">
         <v>71</v>
@@ -11067,9 +11185,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:97">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C36">
         <v>117</v>
@@ -11357,9 +11478,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:97">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C37">
         <v>83</v>
@@ -11647,9 +11771,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:97">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C38">
         <v>133</v>
@@ -11937,9 +12064,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:97">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C39">
         <v>269</v>
@@ -12227,9 +12357,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:97">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C40">
         <v>214</v>
@@ -12517,9 +12650,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:97">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C41">
         <v>218</v>
@@ -12807,12 +12943,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:97">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C42">
         <v>63</v>
@@ -13100,9 +13236,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:97">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C43">
         <v>19</v>
@@ -13390,9 +13529,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:97">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C44">
         <v>38</v>
@@ -13680,12 +13822,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:97">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C45">
         <v>12</v>
@@ -13973,12 +14115,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:97">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C46">
         <v>3987</v>
@@ -14266,9 +14408,12 @@
         <v>982</v>
       </c>
     </row>
-    <row r="47" spans="1:97">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C47">
         <v>104</v>
@@ -14556,9 +14701,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:97">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C48">
         <v>91</v>
@@ -14846,12 +14994,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:97">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C49">
         <v>667</v>
@@ -15139,12 +15287,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:97">
+    <row r="50" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C50">
         <v>112</v>
@@ -15432,9 +15580,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:97">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C51">
         <v>11</v>
@@ -15722,12 +15873,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:97">
+    <row r="52" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C52">
         <v>249</v>
@@ -16015,9 +16166,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:97">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C53">
         <v>318</v>
@@ -16305,12 +16459,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:97">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C54">
         <v>30</v>
@@ -16598,9 +16752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:97">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -16888,9 +17045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:97">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C56">
         <v>8</v>
@@ -17178,9 +17338,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:97">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C57">
         <v>40</v>
@@ -17468,9 +17631,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:97">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C58">
         <v>44</v>
@@ -17758,9 +17924,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:97">
+    <row r="59" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C59">
         <v>24</v>
@@ -18048,9 +18217,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:97">
+    <row r="60" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C60">
         <v>25147</v>
@@ -18338,12 +18510,12 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="61" spans="1:97">
+    <row r="61" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C61">
         <v>161</v>
@@ -18631,9 +18803,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:97">
+    <row r="62" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>98</v>
+      </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C62">
         <v>418</v>
@@ -18918,12 +19093,15 @@
         <v>23</v>
       </c>
       <c r="CS62">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:97">
+    <row r="63" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C63">
         <v>25</v>
@@ -19202,21 +19380,21 @@
         <v>33</v>
       </c>
       <c r="CQ63">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="CR63">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="CS63">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:97">
+    <row r="64" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C64">
         <v>8213</v>
@@ -19495,21 +19673,21 @@
         <v>10143</v>
       </c>
       <c r="CQ64">
-        <v>33</v>
+        <v>10143</v>
       </c>
       <c r="CR64">
-        <v>33</v>
+        <v>9726</v>
       </c>
       <c r="CS64">
-        <v>33</v>
+        <v>9648</v>
       </c>
     </row>
-    <row r="65" spans="1:97">
+    <row r="65" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C65">
         <v>99</v>
@@ -19788,18 +19966,21 @@
         <v>23</v>
       </c>
       <c r="CQ65">
-        <v>10143</v>
+        <v>27</v>
       </c>
       <c r="CR65">
-        <v>9726</v>
+        <v>24</v>
       </c>
       <c r="CS65">
-        <v>9648</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:97">
+    <row r="66" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C66">
         <v>19</v>
@@ -20087,12 +20268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:97">
+    <row r="67" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C67">
         <v>44</v>
@@ -20380,9 +20561,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:97">
+    <row r="68" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C68">
         <v>47</v>
@@ -20670,9 +20854,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:97">
+    <row r="69" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>98</v>
+      </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C69">
         <v>86</v>
@@ -20960,12 +21147,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:97">
+    <row r="70" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C70">
         <v>55</v>
@@ -21253,9 +21440,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:97">
+    <row r="71" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>98</v>
+      </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C71">
         <v>5924</v>
@@ -21543,12 +21733,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:97">
+    <row r="72" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C72">
         <v>14</v>
@@ -21836,12 +22026,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:97">
+    <row r="73" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C73">
         <v>856</v>
@@ -22120,21 +22310,21 @@
         <v>142</v>
       </c>
       <c r="CQ73">
-        <v>3698</v>
+        <v>142</v>
       </c>
       <c r="CR73">
-        <v>3648</v>
+        <v>122</v>
       </c>
       <c r="CS73">
-        <v>3609</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:97">
+    <row r="74" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C74">
         <v>37353</v>
@@ -22413,21 +22603,21 @@
         <v>3816</v>
       </c>
       <c r="CQ74">
-        <v>142</v>
+        <v>3698</v>
       </c>
       <c r="CR74">
-        <v>122</v>
+        <v>3648</v>
       </c>
       <c r="CS74">
-        <v>112</v>
+        <v>3609</v>
       </c>
     </row>
-    <row r="75" spans="1:97">
+    <row r="75" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C75">
         <v>162</v>
@@ -22715,9 +22905,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:97">
+    <row r="76" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C76">
         <v>77</v>
@@ -23005,12 +23198,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:97">
+    <row r="77" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C77">
         <v>151</v>
@@ -23298,9 +23491,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:97">
+    <row r="78" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>98</v>
+      </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C78">
         <v>193</v>
@@ -23588,12 +23784,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:97">
+    <row r="79" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C79">
         <v>28</v>
@@ -23881,9 +24077,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:97">
+    <row r="80" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C80">
         <v>107</v>
@@ -24171,12 +24370,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:97">
+    <row r="81" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -24464,9 +24663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:97">
+    <row r="82" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>98</v>
+      </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C82">
         <v>7296</v>
@@ -24754,9 +24956,12 @@
         <v>10047</v>
       </c>
     </row>
-    <row r="83" spans="1:97">
+    <row r="83" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C83">
         <v>24</v>
@@ -25044,9 +25249,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:97">
+    <row r="84" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C84">
         <v>129</v>
@@ -25334,12 +25542,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:97">
+    <row r="85" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C85">
         <v>107</v>
@@ -25627,12 +25835,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:97">
+    <row r="86" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C86">
         <v>162</v>
@@ -25920,12 +26128,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:97">
+    <row r="87" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C87">
         <v>2026</v>
@@ -26213,9 +26421,12 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="88" spans="1:97">
+    <row r="88" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C88">
         <v>27</v>
@@ -26503,12 +26714,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:97">
+    <row r="89" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C89">
         <v>126</v>
@@ -26796,9 +27007,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:97">
+    <row r="90" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -27086,12 +27300,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:97">
+    <row r="91" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -27379,12 +27593,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:97">
+    <row r="92" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C92">
         <v>87</v>
@@ -27672,9 +27886,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:97">
+    <row r="93" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C93">
         <v>355</v>
@@ -27962,12 +28179,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:97">
+    <row r="94" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C94">
         <v>420</v>
@@ -28255,9 +28472,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:97">
+    <row r="95" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C95">
         <v>2037</v>
@@ -28545,9 +28765,12 @@
         <v>340</v>
       </c>
     </row>
-    <row r="96" spans="1:97">
+    <row r="96" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C96">
         <v>179</v>
@@ -28835,12 +29058,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:97">
+    <row r="97" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C97">
         <v>401</v>
@@ -29128,12 +29351,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:97">
+    <row r="98" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C98">
         <v>440</v>
@@ -29421,9 +29644,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:97">
+    <row r="99" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C99">
         <v>91</v>
@@ -29711,9 +29937,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:97">
+    <row r="100" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C100">
         <v>53</v>
@@ -30001,9 +30230,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:97">
+    <row r="101" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C101">
         <v>112</v>
@@ -30291,12 +30523,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:97">
+    <row r="102" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C102">
         <v>13</v>
@@ -30584,9 +30816,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:97">
+    <row r="103" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>98</v>
+      </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C103">
         <v>1162</v>
@@ -30874,12 +31109,12 @@
         <v>428</v>
       </c>
     </row>
-    <row r="104" spans="1:97">
+    <row r="104" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C104">
         <v>21091</v>
@@ -31167,9 +31402,12 @@
         <v>12981</v>
       </c>
     </row>
-    <row r="105" spans="1:97">
+    <row r="105" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>98</v>
+      </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C105">
         <v>239</v>
@@ -31457,9 +31695,12 @@
         <v>774</v>
       </c>
     </row>
-    <row r="106" spans="1:97">
+    <row r="106" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>98</v>
+      </c>
       <c r="B106" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C106">
         <v>61</v>
@@ -31747,12 +31988,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:97">
+    <row r="107" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C107">
         <v>13</v>
@@ -32040,12 +32281,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:97">
+    <row r="108" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C108">
         <v>982</v>
@@ -32333,9 +32574,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="109" spans="1:97">
+    <row r="109" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>98</v>
+      </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C109">
         <v>55</v>
@@ -32623,9 +32867,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:97">
+    <row r="110" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
       <c r="B110" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C110">
         <v>1131</v>
@@ -32913,12 +33160,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="111" spans="1:97">
+    <row r="111" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C111">
         <v>2517</v>
@@ -33206,9 +33453,12 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="112" spans="1:97">
+    <row r="112" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>98</v>
+      </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C112">
         <v>327</v>
@@ -33496,9 +33746,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:97">
+    <row r="113" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>98</v>
+      </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C113">
         <v>256</v>
@@ -33786,12 +34039,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:97">
+    <row r="114" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C114">
         <v>280</v>
@@ -34079,9 +34332,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:97">
+    <row r="115" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>98</v>
+      </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C115">
         <v>225</v>
@@ -34369,9 +34625,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="1:97">
+    <row r="116" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>98</v>
+      </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C116">
         <v>54</v>
@@ -34659,9 +34918,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:97">
+    <row r="117" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>98</v>
+      </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C117">
         <v>594</v>
@@ -34949,9 +35211,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:97">
+    <row r="118" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>98</v>
+      </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C118">
         <v>64</v>
@@ -35239,9 +35504,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:97">
+    <row r="119" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>98</v>
+      </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C119">
         <v>321</v>
@@ -35529,9 +35797,12 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="120" spans="1:97">
+    <row r="120" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>98</v>
+      </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C120">
         <v>264</v>
@@ -35819,9 +36090,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:97">
+    <row r="121" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>98</v>
+      </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -36109,12 +36383,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:97">
+    <row r="122" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C122">
         <v>17</v>
@@ -36402,12 +36676,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:97">
+    <row r="123" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C123">
         <v>58</v>
@@ -36695,9 +36969,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:97">
+    <row r="124" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>98</v>
+      </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C124">
         <v>138</v>
@@ -36985,9 +37262,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:97">
+    <row r="125" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>98</v>
+      </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C125">
         <v>19</v>
@@ -37275,9 +37555,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:97">
+    <row r="126" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>98</v>
+      </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C126">
         <v>2137</v>
@@ -37565,9 +37848,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="127" spans="1:97">
+    <row r="127" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>98</v>
+      </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C127">
         <v>42</v>
@@ -37855,9 +38141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:97">
+    <row r="128" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>98</v>
+      </c>
       <c r="B128" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C128">
         <v>248</v>
@@ -38145,12 +38434,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="1:97">
+    <row r="129" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C129">
         <v>846</v>
@@ -38438,12 +38727,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="130" spans="1:97">
+    <row r="130" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C130">
         <v>658</v>
@@ -38731,12 +39020,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:97">
+    <row r="131" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C131">
         <v>44</v>
@@ -39024,12 +39313,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:97">
+    <row r="132" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B132" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C132">
         <v>524</v>
@@ -39317,12 +39606,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="133" spans="1:97">
+    <row r="133" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C133">
         <v>120</v>
@@ -39610,9 +39899,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:97">
+    <row r="134" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>98</v>
+      </c>
       <c r="B134" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -39900,12 +40192,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:97">
+    <row r="135" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B135" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -40193,12 +40485,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:97">
+    <row r="136" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C136">
         <v>241</v>
@@ -40486,9 +40778,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:97">
+    <row r="137" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>98</v>
+      </c>
       <c r="B137" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C137">
         <v>6</v>
@@ -40776,9 +41071,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:97">
+    <row r="138" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>98</v>
+      </c>
       <c r="B138" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -41066,12 +41364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:97">
+    <row r="139" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B139" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C139">
         <v>5</v>
@@ -41359,9 +41657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:97">
+    <row r="140" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>98</v>
+      </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C140">
         <v>108</v>
@@ -41649,12 +41950,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:97">
+    <row r="141" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C141">
         <v>4</v>
@@ -41942,9 +42243,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:97">
+    <row r="142" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>98</v>
+      </c>
       <c r="B142" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C142">
         <v>410</v>
@@ -42223,18 +42527,21 @@
         <v>143</v>
       </c>
       <c r="CQ142">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="CR142">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="CS142">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="143" spans="1:97">
+    <row r="143" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>98</v>
+      </c>
       <c r="B143" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C143">
         <v>354</v>
@@ -42513,18 +42820,21 @@
         <v>17</v>
       </c>
       <c r="CQ143">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="CR143">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="CS143">
-        <v>128</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:97">
+    <row r="144" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>98</v>
+      </c>
       <c r="B144" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C144">
         <v>113</v>
@@ -42803,21 +43113,21 @@
         <v>53</v>
       </c>
       <c r="CQ144">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="CR144">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="CS144">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:97">
+    <row r="145" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B145" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C145">
         <v>76</v>
@@ -43096,21 +43406,21 @@
         <v>9</v>
       </c>
       <c r="CQ145">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="CR145">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="CS145">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:97">
+    <row r="146" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B146" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C146">
         <v>47</v>
@@ -43398,9 +43708,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="1:97">
+    <row r="147" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>98</v>
+      </c>
       <c r="B147" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C147">
         <v>123</v>
@@ -43688,9 +44001,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:97">
+    <row r="148" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>98</v>
+      </c>
       <c r="B148" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C148">
         <v>98</v>
@@ -43978,9 +44294,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:97">
+    <row r="149" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>98</v>
+      </c>
       <c r="B149" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C149">
         <v>203</v>
@@ -44268,9 +44587,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="150" spans="1:97">
+    <row r="150" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>98</v>
+      </c>
       <c r="B150" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C150">
         <v>137</v>
@@ -44558,9 +44880,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:97">
+    <row r="151" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>98</v>
+      </c>
       <c r="B151" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C151">
         <v>53</v>
@@ -44848,9 +45173,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:97">
+    <row r="152" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>98</v>
+      </c>
       <c r="B152" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C152">
         <v>137</v>
@@ -45138,9 +45466,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:97">
+    <row r="153" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>98</v>
+      </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C153">
         <v>133</v>
@@ -45428,9 +45759,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:97">
+    <row r="154" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>98</v>
+      </c>
       <c r="B154" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -45718,12 +46052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:97">
+    <row r="155" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B155" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C155">
         <v>4535</v>
@@ -46011,9 +46345,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:97">
+    <row r="156" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>98</v>
+      </c>
       <c r="B156" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C156">
         <v>83</v>
@@ -46301,9 +46638,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:97">
+    <row r="157" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>98</v>
+      </c>
       <c r="B157" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C157">
         <v>41</v>
@@ -46582,21 +46922,21 @@
         <v>17</v>
       </c>
       <c r="CQ157">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="CR157">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="CS157">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:97">
+    <row r="158" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B158" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C158">
         <v>1147</v>
@@ -46875,18 +47215,21 @@
         <v>196</v>
       </c>
       <c r="CQ158">
+        <v>196</v>
+      </c>
+      <c r="CR158">
+        <v>155</v>
+      </c>
+      <c r="CS158">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>98</v>
       </c>
-      <c r="CR158">
-        <v>98</v>
-      </c>
-      <c r="CS158">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="159" spans="1:97">
       <c r="B159" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C159">
         <v>7</v>
@@ -47165,7 +47508,7 @@
         <v>1</v>
       </c>
       <c r="CQ159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CR159">
         <v>0</v>
@@ -47174,9 +47517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:97">
+    <row r="160" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>98</v>
+      </c>
       <c r="B160" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C160">
         <v>62</v>
@@ -47455,18 +47801,21 @@
         <v>45</v>
       </c>
       <c r="CQ160">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="CR160">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="CS160">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:97">
+    <row r="161" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>98</v>
+      </c>
       <c r="B161" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C161">
         <v>14</v>
@@ -47745,18 +48094,21 @@
         <v>98</v>
       </c>
       <c r="CQ161">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="CR161">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="CS161">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="162" spans="1:97">
+    <row r="162" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>98</v>
+      </c>
       <c r="B162" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C162">
         <v>88</v>
@@ -48035,18 +48387,21 @@
         <v>2</v>
       </c>
       <c r="CQ162">
-        <v>895</v>
+        <v>2</v>
       </c>
       <c r="CR162">
-        <v>885</v>
+        <v>0</v>
       </c>
       <c r="CS162">
-        <v>889</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:97">
+    <row r="163" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>98</v>
+      </c>
       <c r="B163" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C163">
         <v>31</v>
@@ -48325,18 +48680,21 @@
         <v>11</v>
       </c>
       <c r="CQ163">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="CR163">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CS163">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:97">
+    <row r="164" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>98</v>
+      </c>
       <c r="B164" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C164">
         <v>83</v>
@@ -48615,21 +48973,21 @@
         <v>76</v>
       </c>
       <c r="CQ164">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="CR164">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="CS164">
-        <v>182</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:97">
+    <row r="165" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B165" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C165">
         <v>632</v>
@@ -48908,21 +49266,21 @@
         <v>895</v>
       </c>
       <c r="CQ165">
-        <v>1</v>
+        <v>895</v>
       </c>
       <c r="CR165">
-        <v>0</v>
+        <v>885</v>
       </c>
       <c r="CS165">
-        <v>0</v>
+        <v>889</v>
       </c>
     </row>
-    <row r="166" spans="1:97">
+    <row r="166" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B166" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C166">
         <v>148</v>
@@ -49210,9 +49568,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:97">
+    <row r="167" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>98</v>
+      </c>
       <c r="B167" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C167">
         <v>17</v>
@@ -49500,9 +49861,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:97">
+    <row r="168" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>98</v>
+      </c>
       <c r="B168" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C168">
         <v>1564</v>
@@ -49790,12 +50154,12 @@
         <v>565</v>
       </c>
     </row>
-    <row r="169" spans="1:97">
+    <row r="169" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B169" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C169">
         <v>123</v>
@@ -50083,9 +50447,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:97">
+    <row r="170" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>98</v>
+      </c>
       <c r="B170" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C170">
         <v>56</v>
@@ -50373,12 +50740,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:97">
+    <row r="171" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B171" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C171">
         <v>83</v>
@@ -50666,12 +51033,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:97">
+    <row r="172" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B172" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C172">
         <v>89</v>
@@ -50959,9 +51326,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:97">
+    <row r="173" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>98</v>
+      </c>
       <c r="B173" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C173">
         <v>8150</v>
@@ -51249,9 +51619,12 @@
         <v>22577</v>
       </c>
     </row>
-    <row r="174" spans="1:97">
+    <row r="174" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>98</v>
+      </c>
       <c r="B174" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C174">
         <v>193</v>
@@ -51539,9 +51912,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:97">
+    <row r="175" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>98</v>
+      </c>
       <c r="B175" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C175">
         <v>22</v>
@@ -51829,9 +52205,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="176" spans="1:97">
+    <row r="176" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>98</v>
+      </c>
       <c r="B176" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C176">
         <v>26</v>
@@ -52119,9 +52498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:97">
+    <row r="177" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>98</v>
+      </c>
       <c r="B177" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C177">
         <v>204</v>
@@ -52409,9 +52791,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="178" spans="1:97">
+    <row r="178" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>98</v>
+      </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C178">
         <v>251</v>
@@ -52699,9 +53084,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:97">
+    <row r="179" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>98</v>
+      </c>
       <c r="B179" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C179">
         <v>26</v>
@@ -52989,12 +53377,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:97">
+    <row r="180" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C180">
         <v>265</v>
@@ -53282,12 +53670,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:97">
+    <row r="181" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B181" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C181">
         <v>2099</v>
@@ -53575,9 +53963,12 @@
         <v>928</v>
       </c>
     </row>
-    <row r="182" spans="1:97">
+    <row r="182" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>98</v>
+      </c>
       <c r="B182" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C182">
         <v>247</v>
@@ -53865,9 +54256,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:97">
+    <row r="183" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>98</v>
+      </c>
       <c r="B183" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C183">
         <v>48</v>
@@ -54155,9 +54549,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:97">
+    <row r="184" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>98</v>
+      </c>
       <c r="B184" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C184">
         <v>1991</v>
@@ -54445,12 +54842,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="185" spans="1:97">
+    <row r="185" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C185">
         <v>121</v>
@@ -54738,9 +55135,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:97">
+    <row r="186" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>98</v>
+      </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C186">
         <v>92</v>
@@ -55028,12 +55428,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="187" spans="1:97">
+    <row r="187" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C187">
         <v>611</v>
@@ -55321,9 +55721,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="188" spans="1:97">
+    <row r="188" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>98</v>
+      </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C188">
         <v>160</v>
@@ -55611,9 +56014,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:97">
+    <row r="189" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>98</v>
+      </c>
       <c r="B189" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C189">
         <v>160</v>
@@ -55901,9 +56307,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:97">
+    <row r="190" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>98</v>
+      </c>
       <c r="B190" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C190">
         <v>303</v>
@@ -56191,12 +56600,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="191" spans="1:97">
+    <row r="191" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B191" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C191">
         <v>3236</v>
@@ -56484,9 +56893,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="192" spans="1:97">
+    <row r="192" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>98</v>
+      </c>
       <c r="B192" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C192">
         <v>118</v>
@@ -56774,9 +57186,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:97">
+    <row r="193" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>98</v>
+      </c>
       <c r="B193" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C193">
         <v>220</v>
@@ -57064,12 +57479,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:97">
+    <row r="194" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B194" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C194">
         <v>3899</v>
@@ -57357,9 +57772,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="1:97">
+    <row r="195" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>98</v>
+      </c>
       <c r="B195" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C195">
         <v>4</v>
@@ -57647,12 +58065,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:97">
+    <row r="196" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B196" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C196">
         <v>8</v>
@@ -57940,9 +58358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:97">
+    <row r="197" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>98</v>
+      </c>
       <c r="B197" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C197">
         <v>49</v>
@@ -58230,9 +58651,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:97">
+    <row r="198" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>98</v>
+      </c>
       <c r="B198" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C198">
         <v>255</v>
@@ -58520,9 +58944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:97">
+    <row r="199" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>98</v>
+      </c>
       <c r="B199" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C199">
         <v>44</v>
@@ -58810,9 +59237,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:97">
+    <row r="200" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>98</v>
+      </c>
       <c r="B200" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C200">
         <v>7</v>
@@ -59100,9 +59530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:97">
+    <row r="201" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>98</v>
+      </c>
       <c r="B201" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C201">
         <v>121</v>
@@ -59390,12 +59823,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:97">
+    <row r="202" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B202" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C202">
         <v>387</v>
@@ -59683,12 +60116,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="203" spans="1:97">
+    <row r="203" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B203" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C203">
         <v>78</v>
@@ -59976,9 +60409,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:97">
+    <row r="204" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>98</v>
+      </c>
       <c r="B204" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C204">
         <v>292</v>
@@ -60266,9 +60702,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="205" spans="1:97">
+    <row r="205" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>98</v>
+      </c>
       <c r="B205" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C205">
         <v>38</v>
@@ -60556,9 +60995,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:97">
+    <row r="206" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>98</v>
+      </c>
       <c r="B206" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C206">
         <v>49</v>
@@ -60846,9 +61288,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:97">
+    <row r="207" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>98</v>
+      </c>
       <c r="B207" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C207">
         <v>41</v>
@@ -61136,12 +61581,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="208" spans="1:97">
+    <row r="208" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B208" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C208">
         <v>121</v>
@@ -61429,9 +61874,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:97">
+    <row r="209" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>98</v>
+      </c>
       <c r="B209" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C209">
         <v>36</v>
@@ -61719,9 +62167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:97">
+    <row r="210" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>98</v>
+      </c>
       <c r="B210" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C210">
         <v>18</v>
@@ -62009,12 +62460,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:97">
+    <row r="211" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B211" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C211">
         <v>97</v>
@@ -62302,12 +62753,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:97">
+    <row r="212" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B212" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C212">
         <v>6</v>
@@ -62595,9 +63046,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:97">
+    <row r="213" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>98</v>
+      </c>
       <c r="B213" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C213">
         <v>71</v>
@@ -62885,9 +63339,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="214" spans="1:97">
+    <row r="214" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>98</v>
+      </c>
       <c r="B214" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C214">
         <v>9</v>
@@ -63175,9 +63632,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:97">
+    <row r="215" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>98</v>
+      </c>
       <c r="B215" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C215">
         <v>4596</v>
@@ -63465,12 +63925,12 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="216" spans="1:97">
+    <row r="216" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B216" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C216">
         <v>48</v>
@@ -63758,9 +64218,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:97">
+    <row r="217" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>98</v>
+      </c>
       <c r="B217" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C217">
         <v>654</v>
@@ -64048,12 +64511,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="218" spans="1:97">
+    <row r="218" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B218" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C218">
         <v>84</v>
@@ -64341,9 +64804,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:97">
+    <row r="219" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>98</v>
+      </c>
       <c r="B219" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C219">
         <v>18</v>
@@ -64631,12 +65097,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:97">
+    <row r="220" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B220" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C220">
         <v>5</v>
@@ -64924,9 +65390,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:97">
+    <row r="221" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>98</v>
+      </c>
       <c r="B221" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C221">
         <v>58</v>
@@ -65214,9 +65683,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:97">
+    <row r="222" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>98</v>
+      </c>
       <c r="B222" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C222">
         <v>159</v>
@@ -65504,9 +65976,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:97">
+    <row r="223" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>98</v>
+      </c>
       <c r="B223" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C223">
         <v>31380</v>
@@ -65794,12 +66269,12 @@
         <v>8038</v>
       </c>
     </row>
-    <row r="224" spans="1:97">
+    <row r="224" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B224" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C224">
         <v>2592</v>
@@ -66087,9 +66562,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="225" spans="1:97">
+    <row r="225" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>98</v>
+      </c>
       <c r="B225" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C225">
         <v>11</v>
@@ -66377,12 +66855,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:97">
+    <row r="226" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B226" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C226">
         <v>312</v>
@@ -66670,12 +67148,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:97">
+    <row r="227" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B227" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -66963,9 +67441,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:97">
+    <row r="228" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>98</v>
+      </c>
       <c r="B228" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C228">
         <v>179</v>
@@ -67253,9 +67734,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="229" spans="1:97">
+    <row r="229" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>98</v>
+      </c>
       <c r="B229" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C229">
         <v>1510</v>
@@ -67543,12 +68027,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="230" spans="1:97">
+    <row r="230" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B230" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C230">
         <v>3091</v>
@@ -67836,9 +68320,12 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="231" spans="1:97">
+    <row r="231" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>98</v>
+      </c>
       <c r="B231" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C231">
         <v>17</v>
@@ -68126,9 +68613,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="232" spans="1:97">
+    <row r="232" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>98</v>
+      </c>
       <c r="B232" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C232">
         <v>124</v>
@@ -68416,9 +68906,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:97">
+    <row r="233" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>98</v>
+      </c>
       <c r="B233" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C233">
         <v>165</v>
@@ -68706,9 +69199,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="234" spans="1:97">
+    <row r="234" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>98</v>
+      </c>
       <c r="B234" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C234">
         <v>25</v>
@@ -68996,12 +69492,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:97">
+    <row r="235" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B235" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C235">
         <v>70</v>
@@ -69289,12 +69785,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:97">
+    <row r="236" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B236" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C236">
         <v>323</v>
@@ -69582,9 +70078,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="237" spans="1:97">
+    <row r="237" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>98</v>
+      </c>
       <c r="B237" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C237">
         <v>1023</v>
@@ -69872,12 +70371,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="238" spans="1:97">
+    <row r="238" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B238" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C238">
         <v>243</v>
@@ -70165,9 +70664,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:97">
+    <row r="239" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>98</v>
+      </c>
       <c r="B239" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C239">
         <v>230</v>
@@ -70455,9 +70957,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:97">
+    <row r="240" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>98</v>
+      </c>
       <c r="B240" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C240">
         <v>135</v>
@@ -70745,9 +71250,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="241" spans="1:97">
+    <row r="241" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>98</v>
+      </c>
       <c r="B241" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C241">
         <v>125</v>
@@ -71035,9 +71543,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:97">
+    <row r="242" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>98</v>
+      </c>
       <c r="B242" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C242">
         <v>189</v>
@@ -71325,9 +71836,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="243" spans="1:97">
+    <row r="243" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>98</v>
+      </c>
       <c r="B243" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C243">
         <v>3689</v>
@@ -71615,9 +72129,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="244" spans="1:97">
+    <row r="244" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>98</v>
+      </c>
       <c r="B244" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C244">
         <v>131</v>
@@ -71905,9 +72422,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:97">
+    <row r="245" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>98</v>
+      </c>
       <c r="B245" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C245">
         <v>79</v>
@@ -72195,12 +72715,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:97">
+    <row r="246" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B246" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C246">
         <v>2591</v>
@@ -72488,12 +73008,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="247" spans="1:97">
+    <row r="247" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B247" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C247">
         <v>41</v>
@@ -72781,9 +73301,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:97">
+    <row r="248" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>98</v>
+      </c>
       <c r="B248" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C248">
         <v>146</v>
@@ -73071,12 +73594,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="249" spans="1:97">
+    <row r="249" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B249" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C249">
         <v>1135</v>
@@ -73364,12 +73887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:97">
+    <row r="250" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B250" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C250">
         <v>176</v>
@@ -73657,9 +74180,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:97">
+    <row r="251" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>98</v>
+      </c>
       <c r="B251" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C251">
         <v>126</v>
@@ -73947,12 +74473,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:97">
+    <row r="252" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B252" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C252">
         <v>350</v>
@@ -74240,9 +74766,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="253" spans="1:97">
+    <row r="253" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>98</v>
+      </c>
       <c r="B253" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C253">
         <v>357</v>
@@ -74530,12 +75059,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="254" spans="1:97">
+    <row r="254" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B254" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C254">
         <v>112</v>
@@ -74823,12 +75352,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:97">
+    <row r="255" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B255" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C255">
         <v>68</v>
@@ -75116,9 +75645,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:97">
+    <row r="256" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>98</v>
+      </c>
       <c r="B256" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C256">
         <v>180</v>
@@ -75406,12 +75938,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:97">
+    <row r="257" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B257" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C257">
         <v>35</v>
@@ -75699,29 +76231,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:97">
+    <row r="258" spans="1:97" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>98</v>
+      </c>
+      <c r="B258" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="259" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>354</v>
+        <v>100</v>
+      </c>
+      <c r="B259" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="260" spans="1:97">
+    <row r="260" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>355</v>
+        <v>101</v>
+      </c>
+      <c r="B260" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="261" spans="1:97">
+    <row r="261" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>356</v>
+        <v>102</v>
+      </c>
+      <c r="B261" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="262" spans="1:97">
+    <row r="262" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>357</v>
+        <v>103</v>
+      </c>
+      <c r="B262" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="263" spans="1:97">
+    <row r="263" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>358</v>
+        <v>104</v>
+      </c>
+      <c r="B263" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
